--- a/Documentation/Pokemon_learnset_rebalance/059_Arcanine.xlsx
+++ b/Documentation/Pokemon_learnset_rebalance/059_Arcanine.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stan ten Napel\Desktop\Overig\Pokémon ROM hacking\Changelog\Pokémon_learnset_rebalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC1D1C8-B98D-4A2E-9D2A-E2A7DAF5FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F194BDCE-3AC3-451A-8411-4ABE7856EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -726,7 +726,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,7 +897,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>120</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>121</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>122</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>124</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>123</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>125</v>
